--- a/data/dados_prod_sorgo.xlsx
+++ b/data/dados_prod_sorgo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\experimentacao-agricola-unesp-fcav\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\experimentacao-agricola-unesp-fcav\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
     <t>Repetições</t>
   </si>
   <si>
-    <t>Rep</t>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -158,6 +158,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -166,11 +171,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,26 +463,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="8" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -501,33 +501,33 @@
       <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>10.27</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>11.55</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>11.68</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>11.38</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="9">
         <v>11.2</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="9">
         <v>11.24</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">

--- a/data/dados_prod_sorgo.xlsx
+++ b/data/dados_prod_sorgo.xlsx
@@ -5,14 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\experimentacao-agricola-unesp-fcav\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Not. Unesp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="ANOVA" sheetId="1" r:id="rId1"/>
+    <sheet name="Teste de Tukey" sheetId="2" r:id="rId2"/>
+    <sheet name="Teste t Student" sheetId="3" r:id="rId3"/>
+    <sheet name="Teste de Duncan" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>NK300H</t>
   </si>
@@ -72,13 +75,57 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>s(m)</t>
+  </si>
+  <si>
+    <r>
+      <t>QM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>res</t>
+    </r>
+  </si>
+  <si>
+    <t>4-Pionner93H</t>
+  </si>
+  <si>
+    <t>2-Sordan67H</t>
+  </si>
+  <si>
+    <t>3-Pionner988H</t>
+  </si>
+  <si>
+    <t>1-NK300H</t>
+  </si>
+  <si>
+    <t>5-SartV</t>
+  </si>
+  <si>
+    <t>q(5 x 22)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +141,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -103,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -140,11 +196,165 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -162,15 +372,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +695,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,46 +704,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="11" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -639,4 +880,340 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="12">
+        <v>21.012</v>
+      </c>
+      <c r="C2" s="27">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24">
+        <f>SQRT(($B$7/C2))</f>
+        <v>0.30033314835362412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11">
+        <v>20.911666666666669</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="25">
+        <f>SQRT(($B$7/C3))</f>
+        <v>0.27416540019970914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11">
+        <v>11.219999999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="25">
+        <f>SQRT(($B$7/C4))</f>
+        <v>0.27416540019970914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="11">
+        <v>10.461666666666668</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6</v>
+      </c>
+      <c r="D5" s="25">
+        <f>SQRT(($B$7/C5))</f>
+        <v>0.27416540019970914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="15">
+        <v>9.9674999999999994</v>
+      </c>
+      <c r="C6" s="28">
+        <v>4</v>
+      </c>
+      <c r="D6" s="26">
+        <f>SQRT(($B$7/C6))</f>
+        <v>0.33578266780761629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="31">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="30">
+        <v>4.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D6">
+    <sortCondition descending="1" ref="B2:B6"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C6" sqref="A2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="12">
+        <v>11.219999999999999</v>
+      </c>
+      <c r="C2" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11">
+        <v>10.461666666666668</v>
+      </c>
+      <c r="C3" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11">
+        <v>9.9674999999999994</v>
+      </c>
+      <c r="C4" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="11">
+        <v>21.012</v>
+      </c>
+      <c r="C5" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="15">
+        <v>20.911666666666669</v>
+      </c>
+      <c r="C6" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="31">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C6">
+    <sortCondition ref="A2:A6"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="12">
+        <v>21.012</v>
+      </c>
+      <c r="C2" s="27">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24">
+        <f>SQRT(($B$7/C2))</f>
+        <v>0.30033314835362412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11">
+        <v>20.911666666666669</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="25">
+        <f>SQRT(($B$7/C3))</f>
+        <v>0.27416540019970914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11">
+        <v>11.219999999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="25">
+        <f>SQRT(($B$7/C4))</f>
+        <v>0.27416540019970914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="11">
+        <v>10.461666666666668</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6</v>
+      </c>
+      <c r="D5" s="25">
+        <f>SQRT(($B$7/C5))</f>
+        <v>0.27416540019970914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="15">
+        <v>9.9674999999999994</v>
+      </c>
+      <c r="C6" s="28">
+        <v>4</v>
+      </c>
+      <c r="D6" s="26">
+        <f>SQRT(($B$7/C6))</f>
+        <v>0.33578266780761629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="31">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>